--- a/Excel Output/Main Report.xlsx
+++ b/Excel Output/Main Report.xlsx
@@ -180,13 +180,13 @@
     <t>B16C</t>
   </si>
   <si>
-    <t>B17E</t>
+    <t>B16E</t>
   </si>
   <si>
-    <t>Catalytic Stripper-DMA-CPMA</t>
+    <t>Catalytic Stripper-DMA-CPMA Line</t>
   </si>
   <si>
-    <t>B18E</t>
+    <t>B17E</t>
   </si>
 </sst>
 </file>

--- a/Excel Output/Main Report.xlsx
+++ b/Excel Output/Main Report.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="56">
   <si>
     <t>NO</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>B17E</t>
+  </si>
+  <si>
+    <t>Fitting Coefficients</t>
   </si>
 </sst>
 </file>
@@ -792,13 +795,13 @@
         <v>-45</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2">
         <v>298</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2">
         <v>298</v>
@@ -837,37 +840,37 @@
         <v>-0.7853981633974483</v>
       </c>
       <c r="Z2">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA2">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB2">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC2">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD2">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE2">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF2">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG2">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH2">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI2">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ2">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK2">
         <v>3.166921744359361e-05</v>
@@ -882,124 +885,124 @@
         <v>3.166921744359361e-05</v>
       </c>
       <c r="AP2">
-        <v>0.9884080849930622</v>
+        <v>0.9887896611503364</v>
       </c>
       <c r="AQ2">
-        <v>0.9908295117612107</v>
+        <v>0.9911294865199533</v>
       </c>
       <c r="AR2">
-        <v>0.992747020792715</v>
+        <v>0.992982044910515</v>
       </c>
       <c r="AS2">
-        <v>0.9942632731147082</v>
+        <v>0.9944467864173493</v>
       </c>
       <c r="AT2">
-        <v>0.9954609811617191</v>
+        <v>0.9956037614268504</v>
       </c>
       <c r="AU2">
-        <v>0.9964063976675869</v>
+        <v>0.9965170428120906</v>
       </c>
       <c r="AV2">
-        <v>0.9971523463436223</v>
+        <v>0.9972376870229328</v>
       </c>
       <c r="AW2">
-        <v>0.9977407926117332</v>
+        <v>0.9978062381620922</v>
       </c>
       <c r="AX2">
-        <v>0.9982049843043482</v>
+        <v>0.9982548082944087</v>
       </c>
       <c r="AY2">
-        <v>0.9985712090052536</v>
+        <v>0.9986087821407135</v>
       </c>
       <c r="AZ2">
-        <v>0.9988602209061206</v>
+        <v>0.998888199281176</v>
       </c>
       <c r="BA2">
-        <v>0.9990883895884372</v>
+        <v>0.9991088658038388</v>
       </c>
       <c r="BB2">
-        <v>0.999268618960702</v>
+        <v>0.9992832427842835</v>
       </c>
       <c r="BC2">
-        <v>0.9994110786928097</v>
+        <v>0.9994211529532886</v>
       </c>
       <c r="BD2">
-        <v>0.9995237841450709</v>
+        <v>0.9995303405623904</v>
       </c>
       <c r="BE2">
-        <v>0.9996130547037001</v>
+        <v>0.9996169134511731</v>
       </c>
       <c r="BF2">
-        <v>0.9996838749742808</v>
+        <v>0.9996856909904258</v>
       </c>
       <c r="BG2">
-        <v>0.99974017860519</v>
+        <v>0.9997404770618932</v>
       </c>
       <c r="BH2">
-        <v>0.9997850706488901</v>
+        <v>0.9997842735601479</v>
       </c>
       <c r="BI2">
-        <v>0.999821001283176</v>
+        <v>0.9998194470056955</v>
       </c>
       <c r="BJ2">
-        <v>0.9998499013158831</v>
+        <v>0.999847858611674</v>
       </c>
       <c r="BK2">
-        <v>0.9998732880434755</v>
+        <v>0.9998709663600124</v>
       </c>
       <c r="BL2">
-        <v>0.9998923485420251</v>
+        <v>0.9998899060966903</v>
       </c>
       <c r="BM2">
-        <v>0.9999080061423469</v>
+        <v>0.9999055571581941</v>
       </c>
       <c r="BN2">
-        <v>0.9999209745274464</v>
+        <v>0.9999185965035305</v>
       </c>
       <c r="BO2">
-        <v>0.9999318025450769</v>
+        <v>0.9999295438182415</v>
       </c>
       <c r="BP2">
-        <v>0.9999409115510471</v>
+        <v>0.9999387988022069</v>
       </c>
       <c r="BQ2">
-        <v>0.9999486261088119</v>
+        <v>0.9999466711240756</v>
       </c>
       <c r="BR2">
-        <v>0.9999551983894084</v>
+        <v>0.9999534034509501</v>
       </c>
       <c r="BS2">
-        <v>0.9999608266921729</v>
+        <v>0.9999591883663671</v>
       </c>
       <c r="BT2">
-        <v>0.9999656689127264</v>
+        <v>0.9999641804452083</v>
       </c>
       <c r="BU2">
-        <v>0.9999698521285826</v>
+        <v>0.9999685048835305</v>
       </c>
       <c r="BV2">
-        <v>0.9999734794878055</v>
+        <v>0.9999722638343919</v>
       </c>
       <c r="BW2">
-        <v>0.999976635312434</v>
+        <v>0.9999755412074903</v>
       </c>
       <c r="BX2">
-        <v>0.9999793889909568</v>
+        <v>0.9999784063781388</v>
       </c>
       <c r="BY2">
-        <v>0.9999817979960236</v>
+        <v>0.9999809170783001</v>
       </c>
       <c r="BZ2">
-        <v>0.9999839102397908</v>
+        <v>0.999983121658818</v>
       </c>
       <c r="CA2">
-        <v>0.9999857659186157</v>
+        <v>0.9999850608652681</v>
       </c>
       <c r="CB2">
-        <v>0.9999873989625623</v>
+        <v>0.9999867692372344</v>
       </c>
       <c r="CC2">
-        <v>0.9999888381788831</v>
+        <v>0.9999882762158221</v>
       </c>
     </row>
     <row r="3" spans="1:81">
@@ -1031,13 +1034,13 @@
         <v>-90</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>298</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3">
         <v>298</v>
@@ -1076,37 +1079,37 @@
         <v>-1.570796326794897</v>
       </c>
       <c r="Z3">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA3">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB3">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC3">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD3">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE3">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF3">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG3">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH3">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI3">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ3">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK3">
         <v>3.166921744359361e-05</v>
@@ -1121,124 +1124,124 @@
         <v>3.166921744359361e-05</v>
       </c>
       <c r="AP3">
-        <v>0.9132990324280202</v>
+        <v>0.9158647890537029</v>
       </c>
       <c r="AQ3">
-        <v>0.9298360946074548</v>
+        <v>0.9319300097762322</v>
       </c>
       <c r="AR3">
-        <v>0.9434162740667068</v>
+        <v>0.9451144075755642</v>
       </c>
       <c r="AS3">
-        <v>0.9545142223466413</v>
+        <v>0.9558812441775009</v>
       </c>
       <c r="AT3">
-        <v>0.9635358709718536</v>
+        <v>0.9646275257395026</v>
       </c>
       <c r="AU3">
-        <v>0.9708316019467703</v>
+        <v>0.9716960107826244</v>
       </c>
       <c r="AV3">
-        <v>0.9767033859134761</v>
+        <v>0.9773818112105721</v>
       </c>
       <c r="AW3">
-        <v>0.9814093626724717</v>
+        <v>0.9819368035738238</v>
       </c>
       <c r="AX3">
-        <v>0.9851677532359377</v>
+        <v>0.9855735382716397</v>
       </c>
       <c r="AY3">
-        <v>0.9881608647483143</v>
+        <v>0.9884692852148141</v>
       </c>
       <c r="AZ3">
-        <v>0.9905393135129131</v>
+        <v>0.9907702826172705</v>
       </c>
       <c r="BA3">
-        <v>0.9924263179080917</v>
+        <v>0.9925960225822256</v>
       </c>
       <c r="BB3">
-        <v>0.9939218517417177</v>
+        <v>0.994043366235932</v>
       </c>
       <c r="BC3">
-        <v>0.9951064854837136</v>
+        <v>0.9951903253702359</v>
       </c>
       <c r="BD3">
-        <v>0.9960448091574338</v>
+        <v>0.9960994144090446</v>
       </c>
       <c r="BE3">
-        <v>0.9967883929056572</v>
+        <v>0.996820536566581</v>
       </c>
       <c r="BF3">
-        <v>0.9973782874009322</v>
+        <v>0.997393411611376</v>
       </c>
       <c r="BG3">
-        <v>0.9978470953842637</v>
+        <v>0.9978495797597896</v>
       </c>
       <c r="BH3">
-        <v>0.9982206611634201</v>
+        <v>0.9982140306534183</v>
       </c>
       <c r="BI3">
-        <v>0.99851943126995</v>
+        <v>0.9985065123517917</v>
       </c>
       <c r="BJ3">
-        <v>0.9987595403389379</v>
+        <v>0.9987425760380491</v>
       </c>
       <c r="BK3">
-        <v>0.9989536740172816</v>
+        <v>0.9989344095293275</v>
       </c>
       <c r="BL3">
-        <v>0.9991117564127314</v>
+        <v>0.9990915073672226</v>
       </c>
       <c r="BM3">
-        <v>0.9992415034635072</v>
+        <v>0.9992212173675322</v>
       </c>
       <c r="BN3">
-        <v>0.9993488755955847</v>
+        <v>0.9993291934378294</v>
       </c>
       <c r="BO3">
-        <v>0.9994384535574228</v>
+        <v>0.9994197735381227</v>
       </c>
       <c r="BP3">
-        <v>0.9995137517000311</v>
+        <v>0.9994962921663784</v>
       </c>
       <c r="BQ3">
-        <v>0.9995774753102675</v>
+        <v>0.9995613312173378</v>
       </c>
       <c r="BR3">
-        <v>0.9996317249068477</v>
+        <v>0.9996169127037465</v>
       </c>
       <c r="BS3">
-        <v>0.9996781511667245</v>
+        <v>0.9996646402685209</v>
       </c>
       <c r="BT3">
-        <v>0.999718067529352</v>
+        <v>0.9997058001785698</v>
       </c>
       <c r="BU3">
-        <v>0.9997525303314792</v>
+        <v>0.9997414335099856</v>
       </c>
       <c r="BV3">
-        <v>0.9997823963938461</v>
+        <v>0.9997723891401946</v>
       </c>
       <c r="BW3">
-        <v>0.9998083656731391</v>
+        <v>0.9997993638759314</v>
       </c>
       <c r="BX3">
-        <v>0.9998310137761433</v>
+        <v>0.9998229334443219</v>
       </c>
       <c r="BY3">
-        <v>0.9998508171500605</v>
+        <v>0.9998435766341013</v>
       </c>
       <c r="BZ3">
-        <v>0.9998681727304443</v>
+        <v>0.9998616941745329</v>
       </c>
       <c r="CA3">
-        <v>0.999883413319641</v>
+        <v>0.9998776235470119</v>
       </c>
       <c r="CB3">
-        <v>0.9998968196638001</v>
+        <v>0.9998916506498374</v>
       </c>
       <c r="CC3">
-        <v>0.9999086299751672</v>
+        <v>0.9999040190264307</v>
       </c>
     </row>
     <row r="4" spans="1:81">
@@ -2677,124 +2680,124 @@
     </row>
     <row r="10" spans="1:81">
       <c r="AP10">
-        <v>0.6744051230982127</v>
+        <v>0.6765608347039852</v>
       </c>
       <c r="AQ10">
-        <v>0.7298460639220251</v>
+        <v>0.7317110771384711</v>
       </c>
       <c r="AR10">
-        <v>0.7776707391368167</v>
+        <v>0.7792549715463823</v>
       </c>
       <c r="AS10">
-        <v>0.8182784716467243</v>
+        <v>0.8196016291206821</v>
       </c>
       <c r="AT10">
-        <v>0.8522919488290216</v>
+        <v>0.8533799516994891</v>
       </c>
       <c r="AU10">
-        <v>0.8804542229382175</v>
+        <v>0.8813360179631647</v>
       </c>
       <c r="AV10">
-        <v>0.9035473379946931</v>
+        <v>0.9042523318322813</v>
       </c>
       <c r="AW10">
-        <v>0.9223337940526385</v>
+        <v>0.9228900176842542</v>
       </c>
       <c r="AX10">
-        <v>0.9375190969546462</v>
+        <v>0.937952069992222</v>
       </c>
       <c r="AY10">
-        <v>0.9497316293045532</v>
+        <v>0.9500638020126599</v>
       </c>
       <c r="AZ10">
-        <v>0.9595153375179993</v>
+        <v>0.9597659551835556</v>
       </c>
       <c r="BA10">
-        <v>0.9673309739973313</v>
+        <v>0.9675162161138914</v>
       </c>
       <c r="BB10">
-        <v>0.9735624052755513</v>
+        <v>0.9736956800400092</v>
       </c>
       <c r="BC10">
-        <v>0.9785254175541971</v>
+        <v>0.9786177250096121</v>
       </c>
       <c r="BD10">
-        <v>0.9824772937485039</v>
+        <v>0.9825376001541253</v>
       </c>
       <c r="BE10">
-        <v>0.9856261056642542</v>
+        <v>0.985661694249544</v>
       </c>
       <c r="BF10">
-        <v>0.9881391488801045</v>
+        <v>0.9881559280598922</v>
       </c>
       <c r="BG10">
-        <v>0.9901502736999392</v>
+        <v>0.9901530345069374</v>
       </c>
       <c r="BH10">
-        <v>0.9917660719654726</v>
+        <v>0.9917586936387129</v>
       </c>
       <c r="BI10">
-        <v>0.9930710016978714</v>
+        <v>0.9930566095076411</v>
       </c>
       <c r="BJ10">
-        <v>0.9941315951750122</v>
+        <v>0.994112678494337</v>
       </c>
       <c r="BK10">
-        <v>0.9949999175766691</v>
+        <v>0.9949784190125363</v>
       </c>
       <c r="BL10">
-        <v>0.9957164333213606</v>
+        <v>0.9956938208935288</v>
       </c>
       <c r="BM10">
-        <v>0.9963124049501522</v>
+        <v>0.9962897381910218</v>
       </c>
       <c r="BN10">
-        <v>0.9968119064309071</v>
+        <v>0.9967899036555091</v>
       </c>
       <c r="BO10">
-        <v>0.9972334934421511</v>
+        <v>0.9972126020451172</v>
       </c>
       <c r="BP10">
-        <v>0.9975915509437255</v>
+        <v>0.9975720172390092</v>
       </c>
       <c r="BQ10">
-        <v>0.9978973386145957</v>
+        <v>0.9978792707146301</v>
       </c>
       <c r="BR10">
-        <v>0.9981597705213854</v>
+        <v>0.9981431884401218</v>
       </c>
       <c r="BS10">
-        <v>0.9983859813671436</v>
+        <v>0.998370852209448</v>
       </c>
       <c r="BT10">
-        <v>0.9985817357992914</v>
+        <v>0.9985679960029519</v>
       </c>
       <c r="BU10">
-        <v>0.9987517287513018</v>
+        <v>0.9987392974493176</v>
       </c>
       <c r="BV10">
-        <v>0.9988998110070484</v>
+        <v>0.9988885982515598</v>
       </c>
       <c r="BW10">
-        <v>0.9990291620455737</v>
+        <v>0.9990190742055005</v>
       </c>
       <c r="BX10">
-        <v>0.9991424241769494</v>
+        <v>0.9991333676276469</v>
       </c>
       <c r="BY10">
-        <v>0.9992418073478213</v>
+        <v>0.9992336909825988</v>
       </c>
       <c r="BZ10">
-        <v>0.9993291713720103</v>
+        <v>0.9993219082489661</v>
       </c>
       <c r="CA10">
-        <v>0.9994060906945953</v>
+        <v>0.9993995990453182</v>
       </c>
       <c r="CB10">
-        <v>0.9994739056206007</v>
+        <v>0.9994681093942018</v>
       </c>
       <c r="CC10">
-        <v>0.9995337630407839</v>
+        <v>0.9995285921159651</v>
       </c>
     </row>
   </sheetData>
@@ -3078,13 +3081,13 @@
         <v>-45</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2">
         <v>298</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2">
         <v>298</v>
@@ -3123,37 +3126,37 @@
         <v>-0.7853981633974483</v>
       </c>
       <c r="Z2">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA2">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB2">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC2">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD2">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE2">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF2">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG2">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH2">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI2">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ2">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK2">
         <v>3.166921744359361e-05</v>
@@ -3168,124 +3171,124 @@
         <v>3.166921744359361e-05</v>
       </c>
       <c r="AP2">
-        <v>0.9999991907214223</v>
+        <v>0.9999991448119827</v>
       </c>
       <c r="AQ2">
-        <v>0.9999991189330946</v>
+        <v>0.9999990684876647</v>
       </c>
       <c r="AR2">
-        <v>0.9999990401043629</v>
+        <v>0.9999989845373176</v>
       </c>
       <c r="AS2">
-        <v>0.9999989533402747</v>
+        <v>0.9999988919508913</v>
       </c>
       <c r="AT2">
-        <v>0.9999988575729263</v>
+        <v>0.9999987895132438</v>
       </c>
       <c r="AU2">
-        <v>0.9999987515135833</v>
+        <v>0.9999986757454932</v>
       </c>
       <c r="AV2">
-        <v>0.999998633588806</v>
+        <v>0.999998548826491</v>
       </c>
       <c r="AW2">
-        <v>0.9999985018548215</v>
+        <v>0.9999984064872582</v>
       </c>
       <c r="AX2">
-        <v>0.9999983538823162</v>
+        <v>0.9999982458687178</v>
       </c>
       <c r="AY2">
-        <v>0.9999981866011107</v>
+        <v>0.9999980633298073</v>
       </c>
       <c r="AZ2">
-        <v>0.9999979960906862</v>
+        <v>0.9999978541889802</v>
       </c>
       <c r="BA2">
-        <v>0.9999977772981908</v>
+        <v>0.9999976123771778</v>
       </c>
       <c r="BB2">
-        <v>0.9999975236603914</v>
+        <v>0.9999973299747348</v>
       </c>
       <c r="BC2">
-        <v>0.9999972266002283</v>
+        <v>0.999996996598729</v>
       </c>
       <c r="BD2">
-        <v>0.9999968748626572</v>
+        <v>0.9999965986016188</v>
       </c>
       <c r="BE2">
-        <v>0.9999964536489611</v>
+        <v>0.999996118037384</v>
       </c>
       <c r="BF2">
-        <v>0.999995943504439</v>
+        <v>0.9999955313481707</v>
       </c>
       <c r="BG2">
-        <v>0.9999953189114583</v>
+        <v>0.9999948077216912</v>
       </c>
       <c r="BH2">
-        <v>0.9999945465366975</v>
+        <v>0.9999939070634073</v>
       </c>
       <c r="BI2">
-        <v>0.9999935830729269</v>
+        <v>0.9999927775091618</v>
       </c>
       <c r="BJ2">
-        <v>0.999992372591656</v>
+        <v>0.9999913523595655</v>
       </c>
       <c r="BK2">
-        <v>0.9999908432684047</v>
+        <v>0.9999895462314793</v>
       </c>
       <c r="BL2">
-        <v>0.9999889032424976</v>
+        <v>0.9999872500869113</v>
       </c>
       <c r="BM2">
-        <v>0.9999864352252819</v>
+        <v>0.9999843246305397</v>
       </c>
       <c r="BN2">
-        <v>0.9999832892978081</v>
+        <v>0.9999805914086501</v>
       </c>
       <c r="BO2">
-        <v>0.9999792731925762</v>
+        <v>0.9999758208491156</v>
       </c>
       <c r="BP2">
-        <v>0.9999741392830651</v>
+        <v>0.9999697164626775</v>
       </c>
       <c r="BQ2">
-        <v>0.9999675674939934</v>
+        <v>0.999961894387381</v>
       </c>
       <c r="BR2">
-        <v>0.9999591432727896</v>
+        <v>0.9999518572327152</v>
       </c>
       <c r="BS2">
-        <v>0.9999483294601273</v>
+        <v>0.9999389606634849</v>
       </c>
       <c r="BT2">
-        <v>0.9999344303037829</v>
+        <v>0.9999223704335083</v>
       </c>
       <c r="BU2">
-        <v>0.9999165450982874</v>
+        <v>0.9999010068052528</v>
       </c>
       <c r="BV2">
-        <v>0.999893508156648</v>
+        <v>0.9998734725020484</v>
       </c>
       <c r="BW2">
-        <v>0.9998638109966669</v>
+        <v>0.9998379593631059</v>
       </c>
       <c r="BX2">
-        <v>0.9998255015535092</v>
+        <v>0.9997921275178391</v>
       </c>
       <c r="BY2">
-        <v>0.9997760537454808</v>
+        <v>0.9997329490746093</v>
       </c>
       <c r="BZ2">
-        <v>0.9997121987494154</v>
+        <v>0.9996565059643918</v>
       </c>
       <c r="CA2">
-        <v>0.9996297068074941</v>
+        <v>0.9995577285646581</v>
       </c>
       <c r="CB2">
-        <v>0.9995231051411176</v>
+        <v>0.9994300578613199</v>
       </c>
       <c r="CC2">
-        <v>0.9993853133824194</v>
+        <v>0.9992650089442517</v>
       </c>
     </row>
     <row r="3" spans="1:81">
@@ -3317,13 +3320,13 @@
         <v>-90</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>298</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3">
         <v>298</v>
@@ -3362,37 +3365,37 @@
         <v>-1.570796326794897</v>
       </c>
       <c r="Z3">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA3">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB3">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC3">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD3">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE3">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF3">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG3">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH3">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI3">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ3">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK3">
         <v>3.166921744359361e-05</v>
@@ -4963,124 +4966,124 @@
     </row>
     <row r="10" spans="1:81">
       <c r="AP10">
-        <v>0.9999375399887658</v>
+        <v>0.9999374940821566</v>
       </c>
       <c r="AQ10">
-        <v>0.999931892425709</v>
+        <v>0.9999318419836705</v>
       </c>
       <c r="AR10">
-        <v>0.9999256581407078</v>
+        <v>0.9999256025777402</v>
       </c>
       <c r="AS10">
-        <v>0.9999187529374604</v>
+        <v>0.9999186915530004</v>
       </c>
       <c r="AT10">
-        <v>0.9999110739693023</v>
+        <v>0.9999110059155945</v>
       </c>
       <c r="AU10">
-        <v>0.9999024941217771</v>
+        <v>0.9999024183609803</v>
       </c>
       <c r="AV10">
-        <v>0.9998928544544579</v>
+        <v>0.999892769701109</v>
       </c>
       <c r="AW10">
-        <v>0.9998819540113548</v>
+        <v>0.9998818586549064</v>
       </c>
       <c r="AX10">
-        <v>0.9998695360815311</v>
+        <v>0.9998694280818469</v>
       </c>
       <c r="AY10">
-        <v>0.9998552697090458</v>
+        <v>0.9998551464553599</v>
       </c>
       <c r="AZ10">
-        <v>0.9998387249161604</v>
+        <v>0.9998385830370553</v>
       </c>
       <c r="BA10">
-        <v>0.9998193397297617</v>
+        <v>0.9998191748381767</v>
       </c>
       <c r="BB10">
-        <v>0.9997963767179271</v>
+        <v>0.99979618307123</v>
       </c>
       <c r="BC10">
-        <v>0.9997688663967089</v>
+        <v>0.9997686364477331</v>
       </c>
       <c r="BD10">
-        <v>0.9997355346028561</v>
+        <v>0.999735258414016</v>
       </c>
       <c r="BE10">
-        <v>0.9996947107537828</v>
+        <v>0.9996943752434746</v>
       </c>
       <c r="BF10">
-        <v>0.9996442137217162</v>
+        <v>0.999643801710416</v>
       </c>
       <c r="BG10">
-        <v>0.9995812114945009</v>
+        <v>0.9995807005164221</v>
       </c>
       <c r="BH10">
-        <v>0.9995020492103787</v>
+        <v>0.999501410052029</v>
       </c>
       <c r="BI10">
-        <v>0.9994020365711525</v>
+        <v>0.9994012314839188</v>
       </c>
       <c r="BJ10">
-        <v>0.9992751791458225</v>
+        <v>0.9992741596454414</v>
       </c>
       <c r="BK10">
-        <v>0.9991138285920544</v>
+        <v>0.9991125326926599</v>
       </c>
       <c r="BL10">
-        <v>0.9989082159919932</v>
+        <v>0.9989065646229708</v>
       </c>
       <c r="BM10">
-        <v>0.998645823743774</v>
+        <v>0.9986437159785577</v>
       </c>
       <c r="BN10">
-        <v>0.9983105478931403</v>
+        <v>0.9983078545169288</v>
       </c>
       <c r="BO10">
-        <v>0.9978816032420602</v>
+        <v>0.9978781581406269</v>
       </c>
       <c r="BP10">
-        <v>0.9973321201571924</v>
+        <v>0.9973277090222831</v>
       </c>
       <c r="BQ10">
-        <v>0.9966273645154116</v>
+        <v>0.9966217103587414</v>
       </c>
       <c r="BR10">
-        <v>0.9957224781497179</v>
+        <v>0.9957152229794167</v>
       </c>
       <c r="BS10">
-        <v>0.9945595958966748</v>
+        <v>0.99455027758859</v>
       </c>
       <c r="BT10">
-        <v>0.9930641580002904</v>
+        <v>0.9930521809900416</v>
       </c>
       <c r="BU10">
-        <v>0.991140203118403</v>
+        <v>0.9911248012061237</v>
       </c>
       <c r="BV10">
-        <v>0.9886643893244945</v>
+        <v>0.9886445786766027</v>
       </c>
       <c r="BW10">
-        <v>0.9854784455923766</v>
+        <v>0.9854529658946644</v>
       </c>
       <c r="BX10">
-        <v>0.9813797117487888</v>
+        <v>0.9813469534310074</v>
       </c>
       <c r="BY10">
-        <v>0.9761093946388479</v>
+        <v>0.9760673103400362</v>
       </c>
       <c r="BZ10">
-        <v>0.9693381731748291</v>
+        <v>0.9692841724908711</v>
       </c>
       <c r="CA10">
-        <v>0.9606488601596072</v>
+        <v>0.9605796887289605</v>
       </c>
       <c r="CB10">
-        <v>0.9495160339187299</v>
+        <v>0.949427641880941</v>
       </c>
       <c r="CC10">
-        <v>0.9352829858610084</v>
+        <v>0.9351703979605909</v>
       </c>
     </row>
   </sheetData>
@@ -5364,13 +5367,13 @@
         <v>-45</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2">
         <v>298</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2">
         <v>298</v>
@@ -5409,37 +5412,37 @@
         <v>-0.7853981633974483</v>
       </c>
       <c r="Z2">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA2">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB2">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC2">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD2">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE2">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF2">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG2">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH2">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI2">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ2">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK2">
         <v>3.166921744359361e-05</v>
@@ -5603,13 +5606,13 @@
         <v>-90</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>298</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3">
         <v>298</v>
@@ -5648,37 +5651,37 @@
         <v>-1.570796326794897</v>
       </c>
       <c r="Z3">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA3">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB3">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC3">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD3">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE3">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF3">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG3">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH3">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI3">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ3">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK3">
         <v>3.166921744359361e-05</v>
@@ -7650,13 +7653,13 @@
         <v>-45</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2">
         <v>298</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2">
         <v>298</v>
@@ -7695,37 +7698,37 @@
         <v>-0.7853981633974483</v>
       </c>
       <c r="Z2">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA2">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB2">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC2">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD2">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE2">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF2">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG2">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH2">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI2">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ2">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK2">
         <v>3.166921744359361e-05</v>
@@ -7740,124 +7743,124 @@
         <v>3.166921744359361e-05</v>
       </c>
       <c r="AP2">
-        <v>0.882690376090834</v>
+        <v>0.9260485244735909</v>
       </c>
       <c r="AQ2">
-        <v>0.8828740715319079</v>
+        <v>0.9261784439722154</v>
       </c>
       <c r="AR2">
-        <v>0.8830883804963164</v>
+        <v>0.926329577090754</v>
       </c>
       <c r="AS2">
-        <v>0.8833373035980812</v>
+        <v>0.9265045191959397</v>
       </c>
       <c r="AT2">
-        <v>0.8836249172440213</v>
+        <v>0.926705833480828</v>
       </c>
       <c r="AU2">
-        <v>0.883955167578268</v>
+        <v>0.9269358848575884</v>
       </c>
       <c r="AV2">
-        <v>0.8843315761521711</v>
+        <v>0.9271966128505492</v>
       </c>
       <c r="AW2">
-        <v>0.8847568441330005</v>
+        <v>0.9274892395472877</v>
       </c>
       <c r="AX2">
-        <v>0.8852323517876519</v>
+        <v>0.9278139192761128</v>
       </c>
       <c r="AY2">
-        <v>0.8857575697528501</v>
+        <v>0.9281693552665116</v>
       </c>
       <c r="AZ2">
-        <v>0.8863294320479861</v>
+        <v>0.928552437167051</v>
       </c>
       <c r="BA2">
-        <v>0.8869417707072927</v>
+        <v>0.9289579922185979</v>
       </c>
       <c r="BB2">
-        <v>0.8875849774442346</v>
+        <v>0.9293787881773155</v>
       </c>
       <c r="BC2">
-        <v>0.8882461301162163</v>
+        <v>0.9298059662984529</v>
       </c>
       <c r="BD2">
-        <v>0.8889098788022808</v>
+        <v>0.9302300957012246</v>
       </c>
       <c r="BE2">
-        <v>0.8895603882786455</v>
+        <v>0.9306429930845589</v>
       </c>
       <c r="BF2">
-        <v>0.8901845249384785</v>
+        <v>0.9310403067903079</v>
       </c>
       <c r="BG2">
-        <v>0.890776200587412</v>
+        <v>0.9314245992711024</v>
       </c>
       <c r="BH2">
-        <v>0.891341322021843</v>
+        <v>0.9318083015271139</v>
       </c>
       <c r="BI2">
-        <v>0.8919022112545636</v>
+        <v>0.9322155619085596</v>
       </c>
       <c r="BJ2">
-        <v>0.8924998594141156</v>
+        <v>0.9326818626621735</v>
       </c>
       <c r="BK2">
-        <v>0.89319228591177</v>
+        <v>0.9332505547871413</v>
       </c>
       <c r="BL2">
-        <v>0.8940479241099574</v>
+        <v>0.9339662823135051</v>
       </c>
       <c r="BM2">
-        <v>0.8951344369909705</v>
+        <v>0.934866471127959</v>
       </c>
       <c r="BN2">
-        <v>0.8965052872321533</v>
+        <v>0.9359731406234266</v>
       </c>
       <c r="BO2">
-        <v>0.8981878479592631</v>
+        <v>0.9372875959347504</v>
       </c>
       <c r="BP2">
-        <v>0.9001768514374791</v>
+        <v>0.9387896924883562</v>
       </c>
       <c r="BQ2">
-        <v>0.9024351781422437</v>
+        <v>0.940441641438567</v>
       </c>
       <c r="BR2">
-        <v>0.9049011779879758</v>
+        <v>0.9421946860745644</v>
       </c>
       <c r="BS2">
-        <v>0.9074994743515238</v>
+        <v>0.9439963445092063</v>
       </c>
       <c r="BT2">
-        <v>0.9101517388014795</v>
+        <v>0.9457964424801469</v>
       </c>
       <c r="BU2">
-        <v>0.912785103577153</v>
+        <v>0.9475512031244496</v>
       </c>
       <c r="BV2">
-        <v>0.9153375063156257</v>
+        <v>0.9492254623426242</v>
       </c>
       <c r="BW2">
-        <v>0.917760306545006</v>
+        <v>0.9507933971953877</v>
       </c>
       <c r="BX2">
-        <v>0.9200188338429075</v>
+        <v>0.9522381858609538</v>
       </c>
       <c r="BY2">
-        <v>0.9220915040172355</v>
+        <v>0.9535509755345859</v>
       </c>
       <c r="BZ2">
-        <v>0.9239680552644595</v>
+        <v>0.954729482666548</v>
       </c>
       <c r="CA2">
-        <v>0.9256473655566402</v>
+        <v>0.9557764837815851</v>
       </c>
       <c r="CB2">
-        <v>0.9271352041317139</v>
+        <v>0.9566983784012821</v>
       </c>
       <c r="CC2">
-        <v>0.928442153297563</v>
+        <v>0.9575039321046958</v>
       </c>
     </row>
     <row r="3" spans="1:81">
@@ -7889,13 +7892,13 @@
         <v>-90</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>298</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3">
         <v>298</v>
@@ -7934,37 +7937,37 @@
         <v>-1.570796326794897</v>
       </c>
       <c r="Z3">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA3">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB3">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC3">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD3">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE3">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF3">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG3">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH3">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI3">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ3">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK3">
         <v>3.166921744359361e-05</v>
@@ -7979,124 +7982,124 @@
         <v>3.166921744359361e-05</v>
       </c>
       <c r="AP3">
-        <v>0.882690376090834</v>
+        <v>0.9260485244735909</v>
       </c>
       <c r="AQ3">
-        <v>0.8828740715319079</v>
+        <v>0.9261784439722154</v>
       </c>
       <c r="AR3">
-        <v>0.8830883804963164</v>
+        <v>0.926329577090754</v>
       </c>
       <c r="AS3">
-        <v>0.8833373035980812</v>
+        <v>0.9265045191959397</v>
       </c>
       <c r="AT3">
-        <v>0.8836249172440213</v>
+        <v>0.926705833480828</v>
       </c>
       <c r="AU3">
-        <v>0.883955167578268</v>
+        <v>0.9269358848575884</v>
       </c>
       <c r="AV3">
-        <v>0.8843315761521711</v>
+        <v>0.9271966128505492</v>
       </c>
       <c r="AW3">
-        <v>0.8847568441330005</v>
+        <v>0.9274892395472877</v>
       </c>
       <c r="AX3">
-        <v>0.8852323517876519</v>
+        <v>0.9278139192761128</v>
       </c>
       <c r="AY3">
-        <v>0.8857575697528501</v>
+        <v>0.9281693552665116</v>
       </c>
       <c r="AZ3">
-        <v>0.8863294320479861</v>
+        <v>0.928552437167051</v>
       </c>
       <c r="BA3">
-        <v>0.8869417707072927</v>
+        <v>0.9289579922185979</v>
       </c>
       <c r="BB3">
-        <v>0.8875849774442346</v>
+        <v>0.9293787881773155</v>
       </c>
       <c r="BC3">
-        <v>0.8882461301162163</v>
+        <v>0.9298059662984529</v>
       </c>
       <c r="BD3">
-        <v>0.8889098788022808</v>
+        <v>0.9302300957012246</v>
       </c>
       <c r="BE3">
-        <v>0.8895603882786455</v>
+        <v>0.9306429930845589</v>
       </c>
       <c r="BF3">
-        <v>0.8901845249384785</v>
+        <v>0.9310403067903079</v>
       </c>
       <c r="BG3">
-        <v>0.890776200587412</v>
+        <v>0.9314245992711024</v>
       </c>
       <c r="BH3">
-        <v>0.891341322021843</v>
+        <v>0.9318083015271139</v>
       </c>
       <c r="BI3">
-        <v>0.8919022112545636</v>
+        <v>0.9322155619085596</v>
       </c>
       <c r="BJ3">
-        <v>0.8924998594141156</v>
+        <v>0.9326818626621735</v>
       </c>
       <c r="BK3">
-        <v>0.89319228591177</v>
+        <v>0.9332505547871413</v>
       </c>
       <c r="BL3">
-        <v>0.8940479241099574</v>
+        <v>0.9339662823135051</v>
       </c>
       <c r="BM3">
-        <v>0.8951344369909705</v>
+        <v>0.934866471127959</v>
       </c>
       <c r="BN3">
-        <v>0.8965052872321533</v>
+        <v>0.9359731406234266</v>
       </c>
       <c r="BO3">
-        <v>0.8981878479592631</v>
+        <v>0.9372875959347504</v>
       </c>
       <c r="BP3">
-        <v>0.9001768514374791</v>
+        <v>0.9387896924883562</v>
       </c>
       <c r="BQ3">
-        <v>0.9024351781422437</v>
+        <v>0.940441641438567</v>
       </c>
       <c r="BR3">
-        <v>0.9049011779879758</v>
+        <v>0.9421946860745644</v>
       </c>
       <c r="BS3">
-        <v>0.9074994743515238</v>
+        <v>0.9439963445092063</v>
       </c>
       <c r="BT3">
-        <v>0.9101517388014795</v>
+        <v>0.9457964424801469</v>
       </c>
       <c r="BU3">
-        <v>0.912785103577153</v>
+        <v>0.9475512031244496</v>
       </c>
       <c r="BV3">
-        <v>0.9153375063156257</v>
+        <v>0.9492254623426242</v>
       </c>
       <c r="BW3">
-        <v>0.917760306545006</v>
+        <v>0.9507933971953877</v>
       </c>
       <c r="BX3">
-        <v>0.9200188338429075</v>
+        <v>0.9522381858609538</v>
       </c>
       <c r="BY3">
-        <v>0.9220915040172355</v>
+        <v>0.9535509755345859</v>
       </c>
       <c r="BZ3">
-        <v>0.9239680552644595</v>
+        <v>0.954729482666548</v>
       </c>
       <c r="CA3">
-        <v>0.9256473655566402</v>
+        <v>0.9557764837815851</v>
       </c>
       <c r="CB3">
-        <v>0.9271352041317139</v>
+        <v>0.9566983784012821</v>
       </c>
       <c r="CC3">
-        <v>0.928442153297563</v>
+        <v>0.9575039321046958</v>
       </c>
     </row>
     <row r="4" spans="1:81">
@@ -9535,124 +9538,124 @@
     </row>
     <row r="10" spans="1:81">
       <c r="AP10">
-        <v>0.779142300043378</v>
+        <v>0.8575658696797148</v>
       </c>
       <c r="AQ10">
-        <v>0.7794666261833284</v>
+        <v>0.8578065100787942</v>
       </c>
       <c r="AR10">
-        <v>0.779845087767607</v>
+        <v>0.8580864853931353</v>
       </c>
       <c r="AS10">
-        <v>0.7802847919279287</v>
+        <v>0.8584106240904994</v>
       </c>
       <c r="AT10">
-        <v>0.7807929943745034</v>
+        <v>0.8587837018073962</v>
       </c>
       <c r="AU10">
-        <v>0.7813767382883238</v>
+        <v>0.8592101346367204</v>
       </c>
       <c r="AV10">
-        <v>0.7820423365797832</v>
+        <v>0.8596935588815312</v>
       </c>
       <c r="AW10">
-        <v>0.7827946732401865</v>
+        <v>0.8602362894760059</v>
       </c>
       <c r="AX10">
-        <v>0.7836363166514971</v>
+        <v>0.8608386688025012</v>
       </c>
       <c r="AY10">
-        <v>0.7845664723744752</v>
+        <v>0.8614983520558518</v>
       </c>
       <c r="AZ10">
-        <v>0.7855798621145056</v>
+        <v>0.8622096285688703</v>
       </c>
       <c r="BA10">
-        <v>0.7866657046253879</v>
+        <v>0.8629629513068086</v>
       </c>
       <c r="BB10">
-        <v>0.7878070921846825</v>
+        <v>0.8637449319139354</v>
       </c>
       <c r="BC10">
-        <v>0.7889811876664343</v>
+        <v>0.8645391349641998</v>
       </c>
       <c r="BD10">
-        <v>0.7901607726322855</v>
+        <v>0.8653280309483095</v>
       </c>
       <c r="BE10">
-        <v>0.7913176843944545</v>
+        <v>0.8660963805773864</v>
       </c>
       <c r="BF10">
-        <v>0.7924284884399447</v>
+        <v>0.8668360528681907</v>
       </c>
       <c r="BG10">
-        <v>0.7934822395329453</v>
+        <v>0.8675517841273338</v>
       </c>
       <c r="BH10">
-        <v>0.7944893523436468</v>
+        <v>0.8682667107948449</v>
       </c>
       <c r="BI10">
-        <v>0.7954895544407802</v>
+        <v>0.8690258538644915</v>
       </c>
       <c r="BJ10">
-        <v>0.796555999054216</v>
+        <v>0.8698954569389814</v>
       </c>
       <c r="BK10">
-        <v>0.7977924596122932</v>
+        <v>0.870956598010507</v>
       </c>
       <c r="BL10">
-        <v>0.7993216906053241</v>
+        <v>0.8722930164985099</v>
       </c>
       <c r="BM10">
-        <v>0.8012656602871417</v>
+        <v>0.873975318839243</v>
       </c>
       <c r="BN10">
-        <v>0.8037217300352056</v>
+        <v>0.8760457199684808</v>
       </c>
       <c r="BO10">
-        <v>0.8067414102216923</v>
+        <v>0.878508037493144</v>
       </c>
       <c r="BP10">
-        <v>0.8103183638638932</v>
+        <v>0.8813260867223824</v>
       </c>
       <c r="BQ10">
-        <v>0.8143892507486231</v>
+        <v>0.8844304809516662</v>
       </c>
       <c r="BR10">
-        <v>0.8188461419240262</v>
+        <v>0.8877308264671468</v>
       </c>
       <c r="BS10">
-        <v>0.823555295948292</v>
+        <v>0.8911290984467442</v>
       </c>
       <c r="BT10">
-        <v>0.8283761876433565</v>
+        <v>0.8945309106081019</v>
       </c>
       <c r="BU10">
-        <v>0.833176645312354</v>
+        <v>0.897853282542592</v>
       </c>
       <c r="BV10">
-        <v>0.8378427504681082</v>
+        <v>0.9010289783595686</v>
       </c>
       <c r="BW10">
-        <v>0.8422839802695833</v>
+        <v>0.9040080841503463</v>
       </c>
       <c r="BX10">
-        <v>0.8464346546256635</v>
+        <v>0.9067575626117603</v>
       </c>
       <c r="BY10">
-        <v>0.8502527417807674</v>
+        <v>0.9092594629429605</v>
       </c>
       <c r="BZ10">
-        <v>0.8537169671491872</v>
+        <v>0.9115083850727344</v>
       </c>
       <c r="CA10">
-        <v>0.8568230453619482</v>
+        <v>0.9135086869498906</v>
       </c>
       <c r="CB10">
-        <v>0.8595796867403548</v>
+        <v>0.9152717872356428</v>
       </c>
       <c r="CC10">
-        <v>0.8620048320198154</v>
+        <v>0.9168137799959538</v>
       </c>
     </row>
   </sheetData>
@@ -9936,13 +9939,13 @@
         <v>-45</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2">
         <v>298</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2">
         <v>298</v>
@@ -9981,37 +9984,37 @@
         <v>-0.7853981633974483</v>
       </c>
       <c r="Z2">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA2">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB2">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC2">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD2">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE2">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF2">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG2">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH2">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI2">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ2">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK2">
         <v>3.166921744359361e-05</v>
@@ -10026,124 +10029,124 @@
         <v>3.166921744359361e-05</v>
       </c>
       <c r="AP2">
-        <v>0.9999999870186044</v>
+        <v>0.9999999908402316</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999842938868</v>
+        <v>0.9999999889052584</v>
       </c>
       <c r="AR2">
-        <v>0.999999980967421</v>
+        <v>0.9999999865373355</v>
       </c>
       <c r="AS2">
-        <v>0.9999999768927871</v>
+        <v>0.999999983628642</v>
       </c>
       <c r="AT2">
-        <v>0.9999999718818869</v>
+        <v>0.9999999800394497</v>
       </c>
       <c r="AU2">
-        <v>0.9999999656902377</v>
+        <v>0.9999999755866223</v>
       </c>
       <c r="AV2">
-        <v>0.9999999579962345</v>
+        <v>0.9999999700267712</v>
       </c>
       <c r="AW2">
-        <v>0.9999999483708715</v>
+        <v>0.9999999630316885</v>
       </c>
       <c r="AX2">
-        <v>0.9999999362331121</v>
+        <v>0.9999999541515802</v>
       </c>
       <c r="AY2">
-        <v>0.9999999207831746</v>
+        <v>0.9999999427595336</v>
       </c>
       <c r="AZ2">
-        <v>0.9999999009009438</v>
+        <v>0.9999999279659351</v>
       </c>
       <c r="BA2">
-        <v>0.9999998749891077</v>
+        <v>0.9999999084850011</v>
       </c>
       <c r="BB2">
-        <v>0.9999998407273507</v>
+        <v>0.9999998824232716</v>
       </c>
       <c r="BC2">
-        <v>0.9999997946816167</v>
+        <v>0.9999998469404106</v>
       </c>
       <c r="BD2">
-        <v>0.9999997316748818</v>
+        <v>0.9999997976976216</v>
       </c>
       <c r="BE2">
-        <v>0.9999996437613378</v>
+        <v>0.9999997279514711</v>
       </c>
       <c r="BF2">
-        <v>0.9999995185358161</v>
+        <v>0.9999996270496919</v>
       </c>
       <c r="BG2">
-        <v>0.9999993363216138</v>
+        <v>0.9999994779145686</v>
       </c>
       <c r="BH2">
-        <v>0.9999990654565483</v>
+        <v>0.999999252805104</v>
       </c>
       <c r="BI2">
-        <v>0.9999986543444557</v>
+        <v>0.9999989061462019</v>
       </c>
       <c r="BJ2">
-        <v>0.9999980179919202</v>
+        <v>0.999998362347906</v>
       </c>
       <c r="BK2">
-        <v>0.9999970151202722</v>
+        <v>0.9999974950407918</v>
       </c>
       <c r="BL2">
-        <v>0.9999954091152986</v>
+        <v>0.9999960915344377</v>
       </c>
       <c r="BM2">
-        <v>0.999992801118149</v>
+        <v>0.9999937916809503</v>
       </c>
       <c r="BN2">
-        <v>0.9999885147909811</v>
+        <v>0.9999899821166947</v>
       </c>
       <c r="BO2">
-        <v>0.9999813967332707</v>
+        <v>0.9999836123127879</v>
       </c>
       <c r="BP2">
-        <v>0.9999694690148843</v>
+        <v>0.9999728732316936</v>
       </c>
       <c r="BQ2">
-        <v>0.9999493219196212</v>
+        <v>0.9999546343936978</v>
       </c>
       <c r="BR2">
-        <v>0.9999150502204205</v>
+        <v>0.9999234561793212</v>
       </c>
       <c r="BS2">
-        <v>0.9998563876515689</v>
+        <v>0.9998698552405446</v>
       </c>
       <c r="BT2">
-        <v>0.9997554330890337</v>
+        <v>0.9997772562244207</v>
       </c>
       <c r="BU2">
-        <v>0.999580903518908</v>
+        <v>0.999616633251174</v>
       </c>
       <c r="BV2">
-        <v>0.9992780476245197</v>
+        <v>0.999337093185786</v>
       </c>
       <c r="BW2">
-        <v>0.9987509629843924</v>
+        <v>0.9988493468967717</v>
       </c>
       <c r="BX2">
-        <v>0.9978316692451346</v>
+        <v>0.9979967656088544</v>
       </c>
       <c r="BY2">
-        <v>0.9962262460401548</v>
+        <v>0.9965049040389818</v>
       </c>
       <c r="BZ2">
-        <v>0.9934216980230381</v>
+        <v>0.993894070313069</v>
       </c>
       <c r="CA2">
-        <v>0.9885268638093261</v>
+        <v>0.9893296239165663</v>
       </c>
       <c r="CB2">
-        <v>0.9800063579018916</v>
+        <v>0.9813706907726883</v>
       </c>
       <c r="CC2">
-        <v>0.9652523577063794</v>
+        <v>0.9675631451262104</v>
       </c>
     </row>
     <row r="3" spans="1:81">
@@ -10175,13 +10178,13 @@
         <v>-90</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>298</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3">
         <v>298</v>
@@ -10220,37 +10223,37 @@
         <v>-1.570796326794897</v>
       </c>
       <c r="Z3">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA3">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB3">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC3">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD3">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE3">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF3">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG3">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH3">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI3">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ3">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK3">
         <v>3.166921744359361e-05</v>
@@ -11821,124 +11824,124 @@
     </row>
     <row r="10" spans="1:81">
       <c r="AP10">
-        <v>0.9999999820631985</v>
+        <v>0.9999999858848256</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999782767313</v>
+        <v>0.9999999828881029</v>
       </c>
       <c r="AR10">
-        <v>0.9999999736441432</v>
+        <v>0.9999999792140576</v>
       </c>
       <c r="AS10">
-        <v>0.9999999679550555</v>
+        <v>0.9999999746909103</v>
       </c>
       <c r="AT10">
-        <v>0.9999999609371236</v>
+        <v>0.9999999690946862</v>
       </c>
       <c r="AU10">
-        <v>0.9999999522333836</v>
+        <v>0.999999962129768</v>
       </c>
       <c r="AV10">
-        <v>0.9999999413697374</v>
+        <v>0.9999999534002738</v>
       </c>
       <c r="AW10">
-        <v>0.9999999277070168</v>
+        <v>0.9999999423678335</v>
       </c>
       <c r="AX10">
-        <v>0.9999999103695305</v>
+        <v>0.9999999282879981</v>
       </c>
       <c r="AY10">
-        <v>0.9999998881367897</v>
+        <v>0.9999999101131481</v>
       </c>
       <c r="AZ10">
-        <v>0.9999998592767201</v>
+        <v>0.9999998863417102</v>
       </c>
       <c r="BA10">
-        <v>0.9999998212852297</v>
+        <v>0.9999998547811213</v>
       </c>
       <c r="BB10">
-        <v>0.9999997704732582</v>
+        <v>0.9999998121691762</v>
       </c>
       <c r="BC10">
-        <v>0.9999997013034427</v>
+        <v>0.9999997535622318</v>
       </c>
       <c r="BD10">
-        <v>0.9999996053111895</v>
+        <v>0.9999996713339209</v>
       </c>
       <c r="BE10">
-        <v>0.9999994693303992</v>
+        <v>0.9999995535205178</v>
       </c>
       <c r="BF10">
-        <v>0.9999992725474685</v>
+        <v>0.9999993810613176</v>
       </c>
       <c r="BG10">
-        <v>0.9999989815708717</v>
+        <v>0.9999991231637763</v>
       </c>
       <c r="BH10">
-        <v>0.9999985421276874</v>
+        <v>0.9999987294761451</v>
       </c>
       <c r="BI10">
-        <v>0.9999978650088481</v>
+        <v>0.9999981168103954</v>
       </c>
       <c r="BJ10">
-        <v>0.9999968021808807</v>
+        <v>0.9999971465364477</v>
       </c>
       <c r="BK10">
-        <v>0.9999951060203381</v>
+        <v>0.9999955859399416</v>
       </c>
       <c r="BL10">
-        <v>0.9999923594432829</v>
+        <v>0.9999930418603409</v>
       </c>
       <c r="BM10">
-        <v>0.9999878555554672</v>
+        <v>0.9999888461133695</v>
       </c>
       <c r="BN10">
-        <v>0.999980389266249</v>
+        <v>0.9999818565800398</v>
       </c>
       <c r="BO10">
-        <v>0.9999678946931159</v>
+        <v>0.9999701102427175</v>
       </c>
       <c r="BP10">
-        <v>0.9999468117332314</v>
+        <v>0.999950215872908</v>
       </c>
       <c r="BQ10">
-        <v>0.9999109764509035</v>
+        <v>0.9999162887212606</v>
       </c>
       <c r="BR10">
-        <v>0.9998496740034372</v>
+        <v>0.9998580794127414</v>
       </c>
       <c r="BS10">
-        <v>0.9997442187544491</v>
+        <v>0.9997576848325632</v>
       </c>
       <c r="BT10">
-        <v>0.9995619447955133</v>
+        <v>0.9995837637073463</v>
       </c>
       <c r="BU10">
-        <v>0.9992456470191957</v>
+        <v>0.9992813647678144</v>
       </c>
       <c r="BV10">
-        <v>0.9986950455670346</v>
+        <v>0.9987540566797471</v>
       </c>
       <c r="BW10">
-        <v>0.9977343182926337</v>
+        <v>0.997832602058444</v>
       </c>
       <c r="BX10">
-        <v>0.9960554616528191</v>
+        <v>0.9962202641338894</v>
       </c>
       <c r="BY10">
-        <v>0.9931201920469247</v>
+        <v>0.9933979812403038</v>
       </c>
       <c r="BZ10">
-        <v>0.9879921453934999</v>
+        <v>0.9884619359297654</v>
       </c>
       <c r="CA10">
-        <v>0.9790560977330708</v>
+        <v>0.9798511668473099</v>
       </c>
       <c r="CB10">
-        <v>0.9635667022057125</v>
+        <v>0.9649081483243264</v>
       </c>
       <c r="CC10">
-        <v>0.9369784468683188</v>
+        <v>0.9392215473284108</v>
       </c>
     </row>
   </sheetData>
@@ -12222,13 +12225,13 @@
         <v>-45</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2">
         <v>298</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2">
         <v>298</v>
@@ -12267,37 +12270,37 @@
         <v>-0.7853981633974483</v>
       </c>
       <c r="Z2">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA2">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB2">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC2">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD2">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE2">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF2">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG2">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH2">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI2">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ2">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK2">
         <v>3.166921744359361e-05</v>
@@ -12461,13 +12464,13 @@
         <v>-90</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>298</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3">
         <v>298</v>
@@ -12506,37 +12509,37 @@
         <v>-1.570796326794897</v>
       </c>
       <c r="Z3">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA3">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB3">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC3">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD3">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE3">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF3">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG3">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH3">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI3">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ3">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK3">
         <v>3.166921744359361e-05</v>
@@ -14508,13 +14511,13 @@
         <v>-45</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2">
         <v>298</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2">
         <v>298</v>
@@ -14553,37 +14556,37 @@
         <v>-0.7853981633974483</v>
       </c>
       <c r="Z2">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA2">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB2">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC2">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD2">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE2">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF2">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG2">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH2">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI2">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ2">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK2">
         <v>3.166921744359361e-05</v>
@@ -14747,13 +14750,13 @@
         <v>-90</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>298</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3">
         <v>298</v>
@@ -14792,37 +14795,37 @@
         <v>-1.570796326794897</v>
       </c>
       <c r="Z3">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA3">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB3">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC3">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD3">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE3">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF3">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG3">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH3">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI3">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ3">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK3">
         <v>3.166921744359361e-05</v>
@@ -16794,13 +16797,13 @@
         <v>-45</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2">
         <v>298</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2">
         <v>298</v>
@@ -16839,37 +16842,37 @@
         <v>-0.7853981633974483</v>
       </c>
       <c r="Z2">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA2">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB2">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC2">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD2">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE2">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF2">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG2">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH2">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI2">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ2">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK2">
         <v>3.166921744359361e-05</v>
@@ -17033,13 +17036,13 @@
         <v>-90</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>298</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3">
         <v>298</v>
@@ -17078,37 +17081,37 @@
         <v>-1.570796326794897</v>
       </c>
       <c r="Z3">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA3">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB3">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC3">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD3">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE3">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF3">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG3">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH3">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI3">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ3">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK3">
         <v>3.166921744359361e-05</v>
@@ -19050,6 +19053,9 @@
       <c r="CC1">
         <v>9.999999999999974e-06</v>
       </c>
+      <c r="CD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:82">
       <c r="A2">
@@ -19080,13 +19086,13 @@
         <v>-45</v>
       </c>
       <c r="J2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K2">
         <v>298</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M2">
         <v>298</v>
@@ -19125,37 +19131,37 @@
         <v>-0.7853981633974483</v>
       </c>
       <c r="Z2">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA2">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB2">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC2">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD2">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE2">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF2">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG2">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH2">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI2">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ2">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK2">
         <v>3.166921744359361e-05</v>
@@ -19170,127 +19176,127 @@
         <v>3.166921744359361e-05</v>
       </c>
       <c r="AP2">
-        <v>0.8724575868862142</v>
+        <v>0.9156664152680956</v>
       </c>
       <c r="AQ2">
-        <v>0.8747769007655792</v>
+        <v>0.9179619003218414</v>
       </c>
       <c r="AR2">
-        <v>0.8766825006243212</v>
+        <v>0.919827691285682</v>
       </c>
       <c r="AS2">
-        <v>0.8782688991957338</v>
+        <v>0.9213584057201567</v>
       </c>
       <c r="AT2">
-        <v>0.8796130974706218</v>
+        <v>0.9226306782999093</v>
       </c>
       <c r="AU2">
-        <v>0.8807774543669454</v>
+        <v>0.9237061610802081</v>
       </c>
       <c r="AV2">
-        <v>0.88181206414689</v>
+        <v>0.9246340360939049</v>
       </c>
       <c r="AW2">
-        <v>0.882756626858324</v>
+        <v>0.9254530401124453</v>
       </c>
       <c r="AX2">
-        <v>0.8836418348938633</v>
+        <v>0.9261930389882633</v>
       </c>
       <c r="AY2">
-        <v>0.8844903333103133</v>
+        <v>0.9268762213710627</v>
       </c>
       <c r="AZ2">
-        <v>0.88531735045751</v>
+        <v>0.927518014804254</v>
       </c>
       <c r="BA2">
-        <v>0.8861311449686839</v>
+        <v>0.9281278650225401</v>
       </c>
       <c r="BB2">
-        <v>0.8869334770024109</v>
+        <v>0.9287100603438146</v>
       </c>
       <c r="BC2">
-        <v>0.8877203787679817</v>
+        <v>0.9292648176639892</v>
       </c>
       <c r="BD2">
-        <v>0.8884835507793287</v>
+        <v>0.9297898536617931</v>
       </c>
       <c r="BE2">
-        <v>0.889212706825855</v>
+        <v>0.9302826118527401</v>
       </c>
       <c r="BF2">
-        <v>0.8898990769898614</v>
+        <v>0.930743166125238</v>
       </c>
       <c r="BG2">
-        <v>0.890539998121109</v>
+        <v>0.9311775521073526</v>
       </c>
       <c r="BH2">
-        <v>0.8911440539438248</v>
+        <v>0.9316009135275111</v>
       </c>
       <c r="BI2">
-        <v>0.8917356396856064</v>
+        <v>0.9320394963787548</v>
       </c>
       <c r="BJ2">
-        <v>0.8923573212576328</v>
+        <v>0.9325303717156125</v>
       </c>
       <c r="BK2">
-        <v>0.8930682643746716</v>
+        <v>0.9331180419161288</v>
       </c>
       <c r="BL2">
-        <v>0.8939376545988883</v>
+        <v>0.9338479017153652</v>
       </c>
       <c r="BM2">
-        <v>0.8950335056541857</v>
+        <v>0.9347577233781769</v>
       </c>
       <c r="BN2">
-        <v>0.896409164864342</v>
+        <v>0.9358694091712939</v>
       </c>
       <c r="BO2">
-        <v>0.8980912707947604</v>
+        <v>0.937183538485683</v>
       </c>
       <c r="BP2">
-        <v>0.9000729025889184</v>
+        <v>0.9386783453012086</v>
       </c>
       <c r="BQ2">
-        <v>0.9023138199550893</v>
+        <v>0.940312994744768</v>
       </c>
       <c r="BR2">
-        <v>0.9047468027424714</v>
+        <v>0.9420333129590291</v>
       </c>
       <c r="BS2">
-        <v>0.9072867191528968</v>
+        <v>0.9437773562528372</v>
       </c>
       <c r="BT2">
-        <v>0.9098382452159459</v>
+        <v>0.9454784989640135</v>
       </c>
       <c r="BU2">
-        <v>0.9122989093869819</v>
+        <v>0.9470643494983542</v>
       </c>
       <c r="BV2">
-        <v>0.9145550155125527</v>
+        <v>0.9484498837171444</v>
       </c>
       <c r="BW2">
-        <v>0.9164677437221275</v>
+        <v>0.9495222491968787</v>
       </c>
       <c r="BX2">
-        <v>0.9178448168632874</v>
+        <v>0.9501125651771407</v>
       </c>
       <c r="BY2">
-        <v>0.918389321059796</v>
+        <v>0.9499463386179595</v>
       </c>
       <c r="BZ2">
-        <v>0.9176109801364152</v>
+        <v>0.9485580197386048</v>
       </c>
       <c r="CA2">
-        <v>0.9146754391416729</v>
+        <v>0.9451456672439984</v>
       </c>
       <c r="CB2">
-        <v>0.908153644958251</v>
+        <v>0.9383282286582885</v>
       </c>
       <c r="CC2">
-        <v>0.8956201101476413</v>
+        <v>0.9257537333858058</v>
       </c>
       <c r="CD2">
-        <v>-6.204614386794654e-05</v>
+        <v>-5.89500328871489e-05</v>
       </c>
     </row>
     <row r="3" spans="1:82">
@@ -19322,13 +19328,13 @@
         <v>-90</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="K3">
         <v>298</v>
       </c>
       <c r="L3">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M3">
         <v>298</v>
@@ -19367,37 +19373,37 @@
         <v>-1.570796326794897</v>
       </c>
       <c r="Z3">
-        <v>5.845170937266363</v>
+        <v>5.260653843539727</v>
       </c>
       <c r="AA3">
-        <v>9.741951562110604e-05</v>
+        <v>8.767756405899544e-05</v>
       </c>
       <c r="AB3">
-        <v>3.07615796931582</v>
+        <v>2.768542172384238</v>
       </c>
       <c r="AC3">
-        <v>2.285160900497846e-05</v>
+        <v>2.117014835239778e-05</v>
       </c>
       <c r="AD3">
-        <v>9.571855142192224e-08</v>
+        <v>8.412488606092003e-08</v>
       </c>
       <c r="AE3">
-        <v>0.8824682111130464</v>
+        <v>0.9805202345700516</v>
       </c>
       <c r="AF3">
-        <v>2.589510728795092e-05</v>
+        <v>2.159073072232995e-05</v>
       </c>
       <c r="AG3">
-        <v>754.3356699759458</v>
+        <v>814.2495509175965</v>
       </c>
       <c r="AH3">
-        <v>1013.32812</v>
+        <v>1008.741740608</v>
       </c>
       <c r="AI3">
-        <v>0.033544108</v>
+        <v>0.030683407392</v>
       </c>
       <c r="AJ3">
-        <v>0.6903202789589722</v>
+        <v>0.6959856845460783</v>
       </c>
       <c r="AK3">
         <v>3.166921744359361e-05</v>
@@ -19412,127 +19418,127 @@
         <v>3.166921744359361e-05</v>
       </c>
       <c r="AP3">
-        <v>0.806160266417284</v>
+        <v>0.8481352365204982</v>
       </c>
       <c r="AQ3">
-        <v>0.8209281787034118</v>
+        <v>0.8631334863455622</v>
       </c>
       <c r="AR3">
-        <v>0.8331199495994371</v>
+        <v>0.8754874294718509</v>
       </c>
       <c r="AS3">
-        <v>0.8431580194137014</v>
+        <v>0.885628292545092</v>
       </c>
       <c r="AT3">
-        <v>0.85140430424915</v>
+        <v>0.8939259552389747</v>
       </c>
       <c r="AU3">
-        <v>0.8581716113891357</v>
+        <v>0.9006999015673807</v>
       </c>
       <c r="AV3">
-        <v>0.8637296446980265</v>
+        <v>0.9062251048161775</v>
       </c>
       <c r="AW3">
-        <v>0.8683086505206754</v>
+        <v>0.9107358192301803</v>
       </c>
       <c r="AX3">
-        <v>0.8721023671024063</v>
+        <v>0.914428847278636</v>
       </c>
       <c r="AY3">
-        <v>0.8752709660843417</v>
+        <v>0.9174668991585836</v>
       </c>
       <c r="AZ3">
-        <v>0.8779441471671023</v>
+        <v>0.9199821605969545</v>
       </c>
       <c r="BA3">
-        <v>0.8802243557019215</v>
+        <v>0.9220800082221503</v>
       </c>
       <c r="BB3">
-        <v>0.8821901043595043</v>
+        <v>0.9238428191080499</v>
       </c>
       <c r="BC3">
-        <v>0.8838994847844575</v>
+        <v>0.9253339021317439</v>
       </c>
       <c r="BD3">
-        <v>0.8853940705897754</v>
+        <v>0.9266016535936593</v>
       </c>
       <c r="BE3">
-        <v>0.8867034698248035</v>
+        <v>0.9276840477184789</v>
       </c>
       <c r="BF3">
-        <v>0.8878507169539521</v>
+        <v>0.9286134679372874</v>
       </c>
       <c r="BG3">
-        <v>0.8888584443935794</v>
+        <v>0.9294216449606</v>
       </c>
       <c r="BH3">
-        <v>0.8897553237909211</v>
+        <v>0.9301441204636961</v>
       </c>
       <c r="BI3">
-        <v>0.8905816887303176</v>
+        <v>0.9308233094813816</v>
       </c>
       <c r="BJ3">
-        <v>0.8913927493410088</v>
+        <v>0.931509086139185</v>
       </c>
       <c r="BK3">
-        <v>0.892257715615457</v>
+        <v>0.9322560918892103</v>
       </c>
       <c r="BL3">
-        <v>0.8932537917746559</v>
+        <v>0.9331177808267608</v>
       </c>
       <c r="BM3">
-        <v>0.8944554806208174</v>
+        <v>0.9341384133565681</v>
       </c>
       <c r="BN3">
-        <v>0.8959215507609491</v>
+        <v>0.9353452836986811</v>
       </c>
       <c r="BO3">
-        <v>0.8976834737684755</v>
+        <v>0.9367437568691998</v>
       </c>
       <c r="BP3">
-        <v>0.8997391419737962</v>
+        <v>0.9383168167661265</v>
       </c>
       <c r="BQ3">
-        <v>0.9020538769985955</v>
+        <v>0.9400290990485524</v>
       </c>
       <c r="BR3">
-        <v>0.9045679254223586</v>
+        <v>0.9418337432597317</v>
       </c>
       <c r="BS3">
-        <v>0.9072073967045057</v>
+        <v>0.9436797661485944</v>
       </c>
       <c r="BT3">
-        <v>0.9098951374730946</v>
+        <v>0.94551818933566</v>
       </c>
       <c r="BU3">
-        <v>0.91255921695014</v>
+        <v>0.9473061981357488</v>
       </c>
       <c r="BV3">
-        <v>0.9151383255734036</v>
+        <v>0.9490094083189912</v>
       </c>
       <c r="BW3">
-        <v>0.9175844321664416</v>
+        <v>0.9506026336933844</v>
       </c>
       <c r="BX3">
-        <v>0.9198633633342993</v>
+        <v>0.9520695763251983</v>
       </c>
       <c r="BY3">
-        <v>0.9219539437787613</v>
+        <v>0.9534018178814367</v>
       </c>
       <c r="BZ3">
-        <v>0.9238462510785772</v>
+        <v>0.95459743801735</v>
       </c>
       <c r="CA3">
-        <v>0.9255394474031069</v>
+        <v>0.9556595192456505</v>
       </c>
       <c r="CB3">
-        <v>0.9270395420096488</v>
+        <v>0.9565947207536808</v>
       </c>
       <c r="CC3">
-        <v>0.9283573215149603</v>
+        <v>0.9574120299450959</v>
       </c>
       <c r="CD3">
-        <v>-0.005685914786822463</v>
+        <v>-0.005376204091144416</v>
       </c>
     </row>
     <row r="4" spans="1:82">
@@ -19774,7 +19780,7 @@
         <v>0.9999401424208926</v>
       </c>
       <c r="CD4">
-        <v>-0.2172934540556549</v>
+        <v>-0.2046488454841373</v>
       </c>
     </row>
     <row r="5" spans="1:82">
@@ -20016,7 +20022,7 @@
         <v>0.9647814171247659</v>
       </c>
       <c r="CD5">
-        <v>-4.429067641988918</v>
+        <v>-4.15856249881341</v>
       </c>
     </row>
     <row r="6" spans="1:82">
@@ -20258,7 +20264,7 @@
         <v>0.9928011801117075</v>
       </c>
       <c r="CD6">
-        <v>-50.74600584089026</v>
+        <v>-47.5424725079551</v>
       </c>
     </row>
     <row r="7" spans="1:82">
@@ -20500,7 +20506,7 @@
         <v>0.995355399649047</v>
       </c>
       <c r="CD7">
-        <v>-309.6612636672041</v>
+        <v>-289.7340542726238</v>
       </c>
     </row>
     <row r="8" spans="1:82">
@@ -20742,7 +20748,7 @@
         <v>0.9999520941058225</v>
       </c>
       <c r="CD8">
-        <v>-784.897045375291</v>
+        <v>-733.9692443679232</v>
       </c>
     </row>
     <row r="9" spans="1:82">
@@ -20983,133 +20989,127 @@
       <c r="CC9">
         <v>0.9526167456179997</v>
       </c>
-      <c r="CD9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:82">
       <c r="AP10">
-        <v>0.5254247292623155</v>
+        <v>0.5801592067640645</v>
       </c>
       <c r="AQ10">
-        <v>0.5688518909590146</v>
+        <v>0.6276237342210219</v>
       </c>
       <c r="AR10">
-        <v>0.606417604268653</v>
+        <v>0.668618398674066</v>
       </c>
       <c r="AS10">
-        <v>0.6384383510722176</v>
+        <v>0.7034975232104191</v>
       </c>
       <c r="AT10">
-        <v>0.6654043797798899</v>
+        <v>0.7328035503338712</v>
       </c>
       <c r="AU10">
-        <v>0.6878993353002288</v>
+        <v>0.7571789160066313</v>
       </c>
       <c r="AV10">
-        <v>0.7065365196340815</v>
+        <v>0.7772965103784162</v>
       </c>
       <c r="AW10">
-        <v>0.7219126997791309</v>
+        <v>0.7938096458326536</v>
       </c>
       <c r="AX10">
-        <v>0.7345780976369976</v>
+        <v>0.807319926353399</v>
       </c>
       <c r="AY10">
-        <v>0.7450196682321417</v>
+        <v>0.8183597667246141</v>
       </c>
       <c r="AZ10">
-        <v>0.7536542552116797</v>
+        <v>0.8273857780165668</v>
       </c>
       <c r="BA10">
-        <v>0.7608284899525826</v>
+        <v>0.8347795515993017</v>
       </c>
       <c r="BB10">
-        <v>0.7668230166979236</v>
+        <v>0.8408531358497042</v>
       </c>
       <c r="BC10">
-        <v>0.7718594715932812</v>
+        <v>0.8458573670873343</v>
       </c>
       <c r="BD10">
-        <v>0.7761094027407588</v>
+        <v>0.8499919596268825</v>
       </c>
       <c r="BE10">
-        <v>0.7797048455242922</v>
+        <v>0.8534167396912644</v>
       </c>
       <c r="BF10">
-        <v>0.7827504515097026</v>
+        <v>0.8562635458444248</v>
       </c>
       <c r="BG10">
-        <v>0.7853368286739113</v>
+        <v>0.8586480967078146</v>
       </c>
       <c r="BH10">
-        <v>0.7875540769155647</v>
+        <v>0.8606806239932054</v>
       </c>
       <c r="BI10">
-        <v>0.7895035453624243</v>
+        <v>0.8624735114487447</v>
       </c>
       <c r="BJ10">
-        <v>0.7913049833126167</v>
+        <v>0.8641439489560452</v>
       </c>
       <c r="BK10">
-        <v>0.7930961042377448</v>
+        <v>0.8658101330638504</v>
       </c>
       <c r="BL10">
-        <v>0.79502271995569</v>
+        <v>0.8675810409173091</v>
       </c>
       <c r="BM10">
-        <v>0.7972201814019051</v>
+        <v>0.8695419819421579</v>
       </c>
       <c r="BN10">
-        <v>0.7997901847570884</v>
+        <v>0.8717400740005425</v>
       </c>
       <c r="BO10">
-        <v>0.8027795100771402</v>
+        <v>0.8741742970832187</v>
       </c>
       <c r="BP10">
-        <v>0.8061672470789052</v>
+        <v>0.8767931481595808</v>
       </c>
       <c r="BQ10">
-        <v>0.8098638997053498</v>
+        <v>0.8794996872376261</v>
       </c>
       <c r="BR10">
-        <v>0.8137207487246289</v>
+        <v>0.8821605972475765</v>
       </c>
       <c r="BS10">
-        <v>0.8175436544770123</v>
+        <v>0.8846144155847049</v>
       </c>
       <c r="BT10">
-        <v>0.8211041470377959</v>
+        <v>0.8866745800407304</v>
       </c>
       <c r="BU10">
-        <v>0.8241418902533167</v>
+        <v>0.8881240800723262</v>
       </c>
       <c r="BV10">
-        <v>0.8263541912623262</v>
+        <v>0.8886987313189967</v>
       </c>
       <c r="BW10">
-        <v>0.827368051506947</v>
+        <v>0.8880546340839274</v>
       </c>
       <c r="BX10">
-        <v>0.8266876169116043</v>
+        <v>0.885712144541313</v>
       </c>
       <c r="BY10">
-        <v>0.8236049383700781</v>
+        <v>0.8809635490203237</v>
       </c>
       <c r="BZ10">
-        <v>0.817054988188742</v>
+        <v>0.8727244594334819</v>
       </c>
       <c r="CA10">
-        <v>0.8053884166239399</v>
+        <v>0.8593010964340921</v>
       </c>
       <c r="CB10">
-        <v>0.7860346488627991</v>
+        <v>0.8380440802670205</v>
       </c>
       <c r="CC10">
-        <v>0.7550571142976441</v>
-      </c>
-      <c r="CD10">
-        <v>1</v>
+        <v>0.8048874443072125</v>
       </c>
     </row>
   </sheetData>
